--- a/biology/Botanique/Oryzopsis/Oryzopsis.xlsx
+++ b/biology/Botanique/Oryzopsis/Oryzopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oryzopsis est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Amérique du Nord.
 Ce sont des plantes herbacées vivaces, cespiteuses, pouvant atteindre 150 cm de haut.
-Étymologie : Le nom générique Oryzopsis dérive de celui du genre Oryza, le riz, avec le suffixe grec -opsis (ὄψις), aspect, apparence, en référence à la similitude de ces plantes avec le riz[1].
+Étymologie : Le nom générique Oryzopsis dérive de celui du genre Oryza, le riz, avec le suffixe grec -opsis (ὄψις), aspect, apparence, en référence à la similitude de ces plantes avec le riz.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 septembre 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 septembre 2016) :
 Oryzopsis asperifolia Michx. (1803)
 Oryzopsis chinensis Hitchc. (1930)
 Oryzopsis contracta (B.L.Johnson) Schltr. (1967)
